--- a/test_data/test_cases.xlsx
+++ b/test_data/test_cases.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeandroSouto\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeandroSouto\qa-dashboard\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB65D3B-7188-414B-BD05-35D19F9A9DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5676F6D-0E54-44AD-BDD1-721BBF50B3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{89B8B4F5-96D8-4249-9A59-5A4CFE4348BC}"/>
+    <workbookView xWindow="552" yWindow="2388" windowWidth="17280" windowHeight="9960" xr2:uid="{89B8B4F5-96D8-4249-9A59-5A4CFE4348BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Functional TC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -516,7 +516,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test_data/test_cases.xlsx
+++ b/test_data/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeandroSouto\qa-dashboard\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5676F6D-0E54-44AD-BDD1-721BBF50B3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB440533-C574-4D62-97CB-D322E2B70058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="552" yWindow="2388" windowWidth="17280" windowHeight="9960" xr2:uid="{89B8B4F5-96D8-4249-9A59-5A4CFE4348BC}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>Autenticación</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Functional</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>JIRA-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High </t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,28 +575,28 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test_cases.xlsx
+++ b/test_data/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeandroSouto\qa-dashboard\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB440533-C574-4D62-97CB-D322E2B70058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E929D-7209-4C1D-8B5E-BA82F83ABC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="552" yWindow="2388" windowWidth="17280" windowHeight="9960" xr2:uid="{89B8B4F5-96D8-4249-9A59-5A4CFE4348BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -102,13 +102,67 @@
   </si>
   <si>
     <t xml:space="preserve">High </t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>Login con credenciales inválidas</t>
+  </si>
+  <si>
+    <t>Verificar que el usuario no puede ingresar…</t>
+  </si>
+  <si>
+    <t>1. Abrir login\n2. Ingresar credenciales invalidas...</t>
+  </si>
+  <si>
+    <t>Usuario no se  logea correctamente</t>
+  </si>
+  <si>
+    <t>user@example.com, password124hkh</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>JIRA-124</t>
+  </si>
+  <si>
+    <t>Boton de agregar columna</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>El boton esta roto</t>
+  </si>
+  <si>
+    <t>1.Dar click al boton</t>
+  </si>
+  <si>
+    <t>no funciona nada</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>BLOCKED</t>
+  </si>
+  <si>
+    <t>JIRA-125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +196,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,6 +236,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE2CA7B-BABA-4D2E-8D8A-A055D134FEE7}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,11 +662,83 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="mailto:user@example.com" xr:uid="{6BF49609-14F1-4BA2-A966-5D1C6A9EBCA3}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{03BC4D87-603F-4F06-92F6-BB34B7076507}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/test_data/test_cases.xlsx
+++ b/test_data/test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeandroSouto\qa-dashboard\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E929D-7209-4C1D-8B5E-BA82F83ABC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65643D76-2160-4450-9E05-0C4CCE54783A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="552" yWindow="2388" windowWidth="17280" windowHeight="9960" xr2:uid="{89B8B4F5-96D8-4249-9A59-5A4CFE4348BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{89B8B4F5-96D8-4249-9A59-5A4CFE4348BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional TC" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test_data/test_cases.xlsx
+++ b/test_data/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeandroSouto\qa-dashboard\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65643D76-2160-4450-9E05-0C4CCE54783A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961B7EDD-56DE-4C68-B86F-87198A3FA809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{89B8B4F5-96D8-4249-9A59-5A4CFE4348BC}"/>
   </bookViews>
@@ -155,7 +155,7 @@
     <t>BLOCKED</t>
   </si>
   <si>
-    <t>JIRA-125</t>
+    <t xml:space="preserve">JIRA-125 </t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test_data/test_cases.xlsx
+++ b/test_data/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeandroSouto\qa-dashboard\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961B7EDD-56DE-4C68-B86F-87198A3FA809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA233DE1-44E1-488A-9C07-A96AE98DB83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{89B8B4F5-96D8-4249-9A59-5A4CFE4348BC}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>JIRA-124</t>
-  </si>
-  <si>
     <t>Boton de agregar columna</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t xml:space="preserve">JIRA-125 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIRA-124 </t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,7 +694,7 @@
         <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -702,34 +702,34 @@
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
